--- a/StructureDefinition-vaccination-injection-site-pain-movement.xlsx
+++ b/StructureDefinition-vaccination-injection-site-pain-movement.xlsx
@@ -745,7 +745,7 @@
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="https://www.netzwerk-universitaetsmedizin.de/fhir/CodeSystem/napkon-vaccination-module"/&gt;
   &lt;code value="q1008"/&gt;
-  &lt;display value="Injection site pain with pressure or movement (finding)"/&gt;
+  &lt;display value="Injection site pain with pressure or movement"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
   <si>
